--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -423,11 +423,11 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="5" max="16384" width="9.850625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="9.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="9.850625" style="2" customWidth="1"/>
+    <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="9.140625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -86,7 +86,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -102,8 +102,20 @@
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -122,6 +134,22 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -423,160 +451,160 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="3" max="4" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="3" max="4" width="9.140625" style="6" customWidth="1"/>
+    <x:col min="5" max="16384" width="9.140625" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" s="3" customFormat="1">
-      <x:c r="A2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s"/>
-      <x:c r="C2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" s="7" customFormat="1">
+      <x:c r="A2" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s"/>
+      <x:c r="C2" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D2" s="6" t="s"/>
+      <x:c r="E2" s="7" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="1" t="s"/>
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="1" t="s"/>
+      <x:c r="A3" s="5" t="s"/>
+      <x:c r="B3" s="5" t="s"/>
+      <x:c r="C3" s="6" t="s"/>
+      <x:c r="D3" s="6" t="s"/>
+      <x:c r="E3" s="5" t="s"/>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="1" t="s"/>
-      <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s"/>
-      <x:c r="D4" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s"/>
+      <x:c r="A4" s="5" t="s"/>
+      <x:c r="B4" s="7" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s"/>
+      <x:c r="D4" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="1" t="s"/>
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="s"/>
-      <x:c r="E5" s="4" t="s">
+      <x:c r="A5" s="5" t="s"/>
+      <x:c r="B5" s="5" t="s"/>
+      <x:c r="C5" s="6" t="s"/>
+      <x:c r="D5" s="6" t="s"/>
+      <x:c r="E5" s="8" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="1" t="s"/>
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="s"/>
-      <x:c r="E6" s="1" t="s">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="5" t="s"/>
+      <x:c r="C6" s="6" t="s"/>
+      <x:c r="D6" s="6" t="s"/>
+      <x:c r="E6" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s"/>
+      <x:c r="A7" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" s="4" customFormat="1">
-      <x:c r="A9" s="1" t="s"/>
-      <x:c r="B9" s="1" t="s"/>
-      <x:c r="C9" s="2" t="s"/>
-      <x:c r="D9" s="2" t="s"/>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="A8" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" s="8" customFormat="1">
+      <x:c r="A9" s="5" t="s"/>
+      <x:c r="B9" s="5" t="s"/>
+      <x:c r="C9" s="6" t="s"/>
+      <x:c r="D9" s="6" t="s"/>
+      <x:c r="E9" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="1" t="s"/>
-      <x:c r="B10" s="1" t="s"/>
-      <x:c r="C10" s="2" t="s"/>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="A10" s="5" t="s"/>
+      <x:c r="B10" s="5" t="s"/>
+      <x:c r="C10" s="6" t="s"/>
+      <x:c r="D10" s="6" t="s"/>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
+      <x:c r="A11" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="B12" s="1" t="s"/>
-      <x:c r="C12" s="2" t="s"/>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="B12" s="5" t="s"/>
+      <x:c r="C12" s="6" t="s"/>
+      <x:c r="D12" s="6" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="B13" s="1" t="s"/>
-      <x:c r="C13" s="2" t="s"/>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="B13" s="5" t="s"/>
+      <x:c r="C13" s="6" t="s"/>
+      <x:c r="D13" s="6" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="C14" s="2" t="s"/>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="C14" s="6" t="s"/>
+      <x:c r="D14" s="6" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="C15" s="2" t="s"/>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="C15" s="6" t="s"/>
+      <x:c r="D15" s="6" t="s"/>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="6" t="s"/>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="6" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -86,7 +86,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -102,20 +102,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="9">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -134,22 +122,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -453,158 +425,154 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="3" max="4" width="9.140625" style="6" customWidth="1"/>
-    <x:col min="5" max="16384" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="4" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="5" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5" s="7" customFormat="1">
-      <x:c r="A2" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="5" t="s"/>
-      <x:c r="C2" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D2" s="6" t="s"/>
-      <x:c r="E2" s="7" t="s">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" s="3" customFormat="1">
+      <x:c r="A2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s"/>
+      <x:c r="C2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="5" t="s"/>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="6" t="s"/>
-      <x:c r="D3" s="6" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
+      <x:c r="A3" s="3" t="s"/>
+      <x:c r="B3" s="1" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="5" t="s"/>
-      <x:c r="B4" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="s"/>
-      <x:c r="D4" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E4" s="5" t="s"/>
+      <x:c r="B4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="5" t="s"/>
-      <x:c r="B5" s="5" t="s"/>
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="E5" s="8" t="s">
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+      <x:c r="E5" s="4" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="5" t="s"/>
-      <x:c r="C6" s="6" t="s"/>
-      <x:c r="D6" s="6" t="s"/>
-      <x:c r="E6" s="5" t="s">
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+      <x:c r="E6" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E7" s="5" t="s"/>
+      <x:c r="A7" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s"/>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" s="8" customFormat="1">
-      <x:c r="A9" s="5" t="s"/>
-      <x:c r="B9" s="5" t="s"/>
-      <x:c r="C9" s="6" t="s"/>
-      <x:c r="D9" s="6" t="s"/>
-      <x:c r="E9" s="5" t="s">
+      <x:c r="A8" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" s="4" customFormat="1">
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="1" t="s"/>
+      <x:c r="C9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s"/>
+      <x:c r="E9" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="5" t="s"/>
-      <x:c r="B10" s="5" t="s"/>
-      <x:c r="C10" s="6" t="s"/>
-      <x:c r="D10" s="6" t="s"/>
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="1" t="s"/>
+      <x:c r="C10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s"/>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="s">
+      <x:c r="A11" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="B12" s="5" t="s"/>
-      <x:c r="C12" s="6" t="s"/>
-      <x:c r="D12" s="6" t="s"/>
+      <x:c r="B12" s="1" t="s"/>
+      <x:c r="C12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="B13" s="5" t="s"/>
-      <x:c r="C13" s="6" t="s"/>
-      <x:c r="D13" s="6" t="s"/>
+      <x:c r="B13" s="1" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="C14" s="6" t="s"/>
-      <x:c r="D14" s="6" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="C15" s="6" t="s"/>
-      <x:c r="D15" s="6" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="D16" s="6" t="s"/>
+      <x:c r="D16" s="2" t="s"/>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="D17" s="6" t="s"/>
+      <x:c r="D17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -552,27 +552,27 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="B12" s="1" t="s"/>
-      <x:c r="C12" s="2" t="s"/>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="C12" s="1" t="s"/>
+      <x:c r="D12" s="1" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="B13" s="1" t="s"/>
-      <x:c r="C13" s="2" t="s"/>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="C13" s="1" t="s"/>
+      <x:c r="D13" s="1" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="C14" s="2" t="s"/>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="C14" s="1" t="s"/>
+      <x:c r="D14" s="1" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="C15" s="2" t="s"/>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="C15" s="1" t="s"/>
+      <x:c r="D15" s="1" t="s"/>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="1" t="s"/>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="1" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -578,14 +578,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -552,27 +552,27 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="B12" s="1" t="s"/>
-      <x:c r="C12" s="1" t="s"/>
-      <x:c r="D12" s="1" t="s"/>
+      <x:c r="C12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="B13" s="1" t="s"/>
-      <x:c r="C13" s="1" t="s"/>
-      <x:c r="D13" s="1" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="C14" s="1" t="s"/>
-      <x:c r="D14" s="1" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="C15" s="1" t="s"/>
-      <x:c r="D15" s="1" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="D16" s="1" t="s"/>
+      <x:c r="D16" s="2" t="s"/>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="D17" s="1" t="s"/>
+      <x:c r="D17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/InsertRows.xlsx
@@ -87,40 +87,40 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
